--- a/Code/Results/Cases/Case_4_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.134968585833235</v>
+        <v>1.096718192662536</v>
       </c>
       <c r="C2">
-        <v>0.09596399767910313</v>
+        <v>0.1042318063352177</v>
       </c>
       <c r="D2">
-        <v>0.3170998261632718</v>
+        <v>0.5500440473496155</v>
       </c>
       <c r="E2">
-        <v>0.0867926771855636</v>
+        <v>0.1859857314196667</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008511714841495029</v>
+        <v>0.002576913897089775</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02855726908296941</v>
+        <v>0.07349989187674222</v>
       </c>
       <c r="K2">
-        <v>0.8633726520562277</v>
+        <v>0.551167743408314</v>
       </c>
       <c r="L2">
-        <v>0.2503033978160829</v>
+        <v>0.4023042471223448</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.427482131515603</v>
+        <v>8.37175143879864</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9963085688249578</v>
+        <v>1.064984540794825</v>
       </c>
       <c r="C3">
-        <v>0.09430993619572448</v>
+        <v>0.1034372542101671</v>
       </c>
       <c r="D3">
-        <v>0.2965208458061426</v>
+        <v>0.5475900088491557</v>
       </c>
       <c r="E3">
-        <v>0.0837639173667597</v>
+        <v>0.1860915640303418</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008561403738958045</v>
+        <v>0.002580121558918526</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02893073711930505</v>
+        <v>0.07380485733061981</v>
       </c>
       <c r="K3">
-        <v>0.7495936412527158</v>
+        <v>0.5222684740820682</v>
       </c>
       <c r="L3">
-        <v>0.2286492254653325</v>
+        <v>0.3988265014650807</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.358430563324958</v>
+        <v>8.392468579742797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9119758797662882</v>
+        <v>1.046023487550912</v>
       </c>
       <c r="C4">
-        <v>0.09329194338718594</v>
+        <v>0.1029404290832119</v>
       </c>
       <c r="D4">
-        <v>0.2842600372946578</v>
+        <v>0.5463102605992987</v>
       </c>
       <c r="E4">
-        <v>0.08200189227195409</v>
+        <v>0.1862201825593388</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008592915122017016</v>
+        <v>0.002582197010429348</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02917845135080199</v>
+        <v>0.07400550936675998</v>
       </c>
       <c r="K4">
-        <v>0.680149674038617</v>
+        <v>0.5047806029703281</v>
       </c>
       <c r="L4">
-        <v>0.2156182620060605</v>
+        <v>0.3968622167576825</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.322154454751598</v>
+        <v>8.408341354318026</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8777914224867231</v>
+        <v>1.038428955501075</v>
       </c>
       <c r="C5">
-        <v>0.09287633649402238</v>
+        <v>0.1027357212078925</v>
       </c>
       <c r="D5">
-        <v>0.2793528055565275</v>
+        <v>0.5458459537376541</v>
       </c>
       <c r="E5">
-        <v>0.08130741374450423</v>
+        <v>0.1862886283748288</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008606013401373842</v>
+        <v>0.002583069492951905</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02928397450233966</v>
+        <v>0.07409065352559452</v>
       </c>
       <c r="K5">
-        <v>0.6519399870719695</v>
+        <v>0.4977190565096095</v>
       </c>
       <c r="L5">
-        <v>0.210370279951448</v>
+        <v>0.3961048805959422</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.308846185611401</v>
+        <v>8.415602730571663</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8721255188088151</v>
+        <v>1.037175894720519</v>
       </c>
       <c r="C6">
-        <v>0.09280727444633641</v>
+        <v>0.1027015940851363</v>
       </c>
       <c r="D6">
-        <v>0.2785432041539906</v>
+        <v>0.5457723139672055</v>
       </c>
       <c r="E6">
-        <v>0.08119349113504448</v>
+        <v>0.1863009629924939</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008608204036908121</v>
+        <v>0.002583215984058089</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02930177160415326</v>
+        <v>0.07410499579948748</v>
       </c>
       <c r="K6">
-        <v>0.6472607473510834</v>
+        <v>0.4965504248062587</v>
       </c>
       <c r="L6">
-        <v>0.2095024935228551</v>
+        <v>0.3959817334479752</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.306723588031048</v>
+        <v>8.416856389326256</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.911514146545926</v>
+        <v>1.045920528753186</v>
       </c>
       <c r="C7">
-        <v>0.0932863416779881</v>
+        <v>0.1029376774128998</v>
       </c>
       <c r="D7">
-        <v>0.2841935022241131</v>
+        <v>0.5463037670438666</v>
       </c>
       <c r="E7">
-        <v>0.08199243216668606</v>
+        <v>0.1862210406866289</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008593090722184837</v>
+        <v>0.002582208668703925</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0291798560024974</v>
+        <v>0.07400664396928125</v>
       </c>
       <c r="K7">
-        <v>0.6797688866193283</v>
+        <v>0.5046851051228316</v>
       </c>
       <c r="L7">
-        <v>0.2155472394299309</v>
+        <v>0.3968518282955742</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.3219690875016</v>
+        <v>8.408436072063637</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.086978654656434</v>
+        <v>1.085668117724623</v>
       </c>
       <c r="C8">
-        <v>0.09539406940520934</v>
+        <v>0.1039597099179481</v>
       </c>
       <c r="D8">
-        <v>0.3099232524947269</v>
+        <v>0.5491508361116502</v>
       </c>
       <c r="E8">
-        <v>0.08572747890871213</v>
+        <v>0.1860090327510058</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008528642732209192</v>
+        <v>0.00257799796113111</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02868219027373353</v>
+        <v>0.07360226645456081</v>
       </c>
       <c r="K8">
-        <v>0.8240454769158418</v>
+        <v>0.5411503069018408</v>
       </c>
       <c r="L8">
-        <v>0.2427793858764034</v>
+        <v>0.4010696797347606</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.402362376075502</v>
+        <v>8.378240666267885</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.43846361656631</v>
+        <v>1.167745812952973</v>
       </c>
       <c r="C9">
-        <v>0.09951675866116005</v>
+        <v>0.1058925313429881</v>
       </c>
       <c r="D9">
-        <v>0.3635995645801984</v>
+        <v>0.5565314412555722</v>
       </c>
       <c r="E9">
-        <v>0.09387469983370167</v>
+        <v>0.1860970072762065</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008409966616591399</v>
+        <v>0.002570577614984969</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02785468479220032</v>
+        <v>0.07291531913700222</v>
       </c>
       <c r="K9">
-        <v>1.111040261441161</v>
+        <v>0.6146782439615208</v>
       </c>
       <c r="L9">
-        <v>0.2984938636635235</v>
+        <v>0.4106942163902971</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.611713231009247</v>
+        <v>8.344027698314363</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.702741595349352</v>
+        <v>1.230546988441375</v>
       </c>
       <c r="C10">
-        <v>0.1025525349226868</v>
+        <v>0.1072688693615547</v>
       </c>
       <c r="D10">
-        <v>0.4053688107334352</v>
+        <v>0.5630457229647874</v>
       </c>
       <c r="E10">
-        <v>0.1004339974901995</v>
+        <v>0.1864673073681651</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0008327108329091325</v>
+        <v>0.002565630860291538</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0273407418002094</v>
+        <v>0.07247484559618478</v>
       </c>
       <c r="K10">
-        <v>1.32553177025278</v>
+        <v>0.6699172145327736</v>
       </c>
       <c r="L10">
-        <v>0.3411553790027568</v>
+        <v>0.4185863049101783</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.801711711587274</v>
+        <v>8.334123209951429</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.82465122723255</v>
+        <v>1.259655574632177</v>
       </c>
       <c r="C11">
-        <v>0.103938426601573</v>
+        <v>0.1078854803065923</v>
       </c>
       <c r="D11">
-        <v>0.4249664756600851</v>
+        <v>0.5662455299896862</v>
       </c>
       <c r="E11">
-        <v>0.1035598434951659</v>
+        <v>0.1867018544887742</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0008290268212205302</v>
+        <v>0.002563489000323902</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02712820880746847</v>
+        <v>0.07228832122894424</v>
       </c>
       <c r="K11">
-        <v>1.424179669011409</v>
+        <v>0.695308941200949</v>
       </c>
       <c r="L11">
-        <v>0.3610154047034939</v>
+        <v>0.4223541023460626</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.897133569338735</v>
+        <v>8.332923581390901</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.87109116999892</v>
+        <v>1.270755408177962</v>
       </c>
       <c r="C12">
-        <v>0.1044642410886425</v>
+        <v>0.1081176047726728</v>
       </c>
       <c r="D12">
-        <v>0.4324813844824575</v>
+        <v>0.567491122828585</v>
       </c>
       <c r="E12">
-        <v>0.1047654925330299</v>
+        <v>0.1868001488048883</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0008276432759625058</v>
+        <v>0.002562693443914557</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02705086417691049</v>
+        <v>0.07221967404313112</v>
       </c>
       <c r="K12">
-        <v>1.461714699531711</v>
+        <v>0.7049616476256517</v>
       </c>
       <c r="L12">
-        <v>0.3686079374269298</v>
+        <v>0.4238063249238877</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.934662598890725</v>
+        <v>8.332944486669476</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.861076699753113</v>
+        <v>1.268361443557751</v>
       </c>
       <c r="C13">
-        <v>0.1043509475617626</v>
+        <v>0.1080676737889377</v>
       </c>
       <c r="D13">
-        <v>0.4308586145391757</v>
+        <v>0.5672213562480692</v>
       </c>
       <c r="E13">
-        <v>0.1045048319586996</v>
+        <v>0.1867785583450257</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0008279407478668874</v>
+        <v>0.002562864092258245</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0270673808737687</v>
+        <v>0.07223437022963708</v>
       </c>
       <c r="K13">
-        <v>1.45362247341231</v>
+        <v>0.7028811077667569</v>
       </c>
       <c r="L13">
-        <v>0.3669694341353278</v>
+        <v>0.4234924330618384</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.926516300190769</v>
+        <v>8.332918854054014</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.828466153051778</v>
+        <v>1.260567224029302</v>
       </c>
       <c r="C14">
-        <v>0.1039816636377324</v>
+        <v>0.1079046048815968</v>
       </c>
       <c r="D14">
-        <v>0.4255828063593867</v>
+        <v>0.5663473269342489</v>
       </c>
       <c r="E14">
-        <v>0.1036585836132602</v>
+        <v>0.1867097514602243</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0008289127699273221</v>
+        <v>0.002563423238621975</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.02712178226993167</v>
+        <v>0.07228263382470956</v>
       </c>
       <c r="K14">
-        <v>1.427263958138496</v>
+        <v>0.6961023279320102</v>
       </c>
       <c r="L14">
-        <v>0.3616385634731358</v>
+        <v>0.4224730683311577</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.900192536131215</v>
+        <v>8.332915779223015</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.808528132837324</v>
+        <v>1.255803054835553</v>
       </c>
       <c r="C15">
-        <v>0.1037556072921717</v>
+        <v>0.1078045414710189</v>
       </c>
       <c r="D15">
-        <v>0.4223636690992407</v>
+        <v>0.5658163698801388</v>
       </c>
       <c r="E15">
-        <v>0.1031431395932998</v>
+        <v>0.1866688385340609</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0008295096373382449</v>
+        <v>0.002563767750988721</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02715551569437125</v>
+        <v>0.07231245507005468</v>
       </c>
       <c r="K15">
-        <v>1.411142712854627</v>
+        <v>0.6919549884117657</v>
       </c>
       <c r="L15">
-        <v>0.3583828359832637</v>
+        <v>0.421851987835268</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.884253291146024</v>
+        <v>8.332975771709016</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.694811216210155</v>
+        <v>1.228655488159802</v>
       </c>
       <c r="C16">
-        <v>0.1024620874133575</v>
+        <v>0.1072283807129395</v>
       </c>
       <c r="D16">
-        <v>0.4041007245008643</v>
+        <v>0.5628413567957011</v>
       </c>
       <c r="E16">
-        <v>0.1002327022925122</v>
+        <v>0.186453306774812</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0008329532444813767</v>
+        <v>0.002565773011723266</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02735506583687375</v>
+        <v>0.07248731357415927</v>
       </c>
       <c r="K16">
-        <v>1.31910858597135</v>
+        <v>0.6682630646191114</v>
       </c>
       <c r="L16">
-        <v>0.3398671673119082</v>
+        <v>0.4183436361258543</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.795665113947422</v>
+        <v>8.334268114562263</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.625504372270711</v>
+        <v>1.212139211285205</v>
       </c>
       <c r="C17">
-        <v>0.1016700156433359</v>
+        <v>0.1068724880156466</v>
       </c>
       <c r="D17">
-        <v>0.3930552410611767</v>
+        <v>0.5610767642619692</v>
       </c>
       <c r="E17">
-        <v>0.09848466914608878</v>
+        <v>0.1863379937105343</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008350871050791284</v>
+        <v>0.002567030896040118</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02748298378636349</v>
+        <v>0.07259812647400388</v>
       </c>
       <c r="K17">
-        <v>1.262940796311653</v>
+        <v>0.6537959429718683</v>
       </c>
       <c r="L17">
-        <v>0.3286291317984791</v>
+        <v>0.4162368000341843</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.743691843593041</v>
+        <v>8.335907509148626</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.585797708531061</v>
+        <v>1.202690350806222</v>
       </c>
       <c r="C18">
-        <v>0.1012148783487063</v>
+        <v>0.1066668949598863</v>
       </c>
       <c r="D18">
-        <v>0.3867578196462489</v>
+        <v>0.560084077107291</v>
       </c>
       <c r="E18">
-        <v>0.0974925121995831</v>
+        <v>0.1862778916017191</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008363225175342893</v>
+        <v>0.002567764609414571</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02755855499293247</v>
+        <v>0.07266316703429787</v>
       </c>
       <c r="K18">
-        <v>1.230734124419257</v>
+        <v>0.6454996411200113</v>
       </c>
       <c r="L18">
-        <v>0.3222075181813295</v>
+        <v>0.4150417308927814</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.714637850175279</v>
+        <v>8.337161632029421</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.572379693220626</v>
+        <v>1.199499883786302</v>
       </c>
       <c r="C19">
-        <v>0.1010608437965033</v>
+        <v>0.1065971315501031</v>
       </c>
       <c r="D19">
-        <v>0.3846349477890243</v>
+        <v>0.5597517965689605</v>
       </c>
       <c r="E19">
-        <v>0.09715881824444494</v>
+        <v>0.1862586117097322</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008367422154116382</v>
+        <v>0.00256801478834956</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02758448262996005</v>
+        <v>0.0726854127808334</v>
       </c>
       <c r="K19">
-        <v>1.219845878279131</v>
+        <v>0.6426949295090481</v>
       </c>
       <c r="L19">
-        <v>0.3200403203690598</v>
+        <v>0.4146399771743461</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.704941904806788</v>
+        <v>8.337639709735157</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.632865747921983</v>
+        <v>1.213892137234126</v>
       </c>
       <c r="C20">
-        <v>0.1017542852583873</v>
+        <v>0.1069104658799063</v>
       </c>
       <c r="D20">
-        <v>0.3942252369283921</v>
+        <v>0.5612623050890164</v>
       </c>
       <c r="E20">
-        <v>0.09866936654914227</v>
+        <v>0.1863496251386216</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008348591216898101</v>
+        <v>0.002566895935714852</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02746915954846685</v>
+        <v>0.07258619534518296</v>
       </c>
       <c r="K20">
-        <v>1.268909477519827</v>
+        <v>0.6553334288812778</v>
       </c>
       <c r="L20">
-        <v>0.3298210239330785</v>
+        <v>0.4164593458946371</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.749136873082335</v>
+        <v>8.33570078771956</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.838036912998092</v>
+        <v>1.262854489139045</v>
       </c>
       <c r="C21">
-        <v>0.1040901013654931</v>
+        <v>0.1079525394890268</v>
       </c>
       <c r="D21">
-        <v>0.4271298300421051</v>
+        <v>0.5666031314371196</v>
       </c>
       <c r="E21">
-        <v>0.1039065384156075</v>
+        <v>0.1867297047463587</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0008286269573361147</v>
+        <v>0.002563258583325582</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02710571745853052</v>
+        <v>0.07226840379729715</v>
       </c>
       <c r="K21">
-        <v>1.43500102226642</v>
+        <v>0.6980924080937143</v>
       </c>
       <c r="L21">
-        <v>0.3632023590008089</v>
+        <v>0.4227717908841413</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.907885753261496</v>
+        <v>8.332903787872226</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.973750566705689</v>
+        <v>1.295303005644996</v>
       </c>
       <c r="C22">
-        <v>0.1056227283516904</v>
+        <v>0.1086255900991091</v>
       </c>
       <c r="D22">
-        <v>0.449185160843399</v>
+        <v>0.5702911909534123</v>
       </c>
       <c r="E22">
-        <v>0.1074581318708319</v>
+        <v>0.1870333315861288</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0008246205789617195</v>
+        <v>0.002560971790286709</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02688651346927529</v>
+        <v>0.0720722791825299</v>
       </c>
       <c r="K22">
-        <v>1.544609010227589</v>
+        <v>0.7262557269131378</v>
       </c>
       <c r="L22">
-        <v>0.3854420734347883</v>
+        <v>0.4270455704949256</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.019821089586742</v>
+        <v>8.333845393108675</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.901157682115695</v>
+        <v>1.277943758076674</v>
       </c>
       <c r="C23">
-        <v>0.1048040756029778</v>
+        <v>0.1082671052774984</v>
       </c>
       <c r="D23">
-        <v>0.4373606867933972</v>
+        <v>0.5683047648309127</v>
       </c>
       <c r="E23">
-        <v>0.1055502528710548</v>
+        <v>0.1868662365760017</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0008267530174049725</v>
+        <v>0.002562184044848863</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02700180193328627</v>
+        <v>0.07217589783477507</v>
       </c>
       <c r="K23">
-        <v>1.486003693297903</v>
+        <v>0.7112046456341545</v>
       </c>
       <c r="L23">
-        <v>0.3735312064818856</v>
+        <v>0.4247510455042089</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.95929433491915</v>
+        <v>8.333089492177237</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.62953724020619</v>
+        <v>1.213099494314974</v>
       </c>
       <c r="C24">
-        <v>0.1017161862548477</v>
+        <v>0.1068932991567593</v>
       </c>
       <c r="D24">
-        <v>0.39369611800727</v>
+        <v>0.5611783541682058</v>
       </c>
       <c r="E24">
-        <v>0.09858582506613445</v>
+        <v>0.1863443472778279</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008349621660473442</v>
+        <v>0.00256695691848015</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02747540317108843</v>
+        <v>0.07259158525678977</v>
       </c>
       <c r="K24">
-        <v>1.2662107740218</v>
+        <v>0.6546382659343806</v>
       </c>
       <c r="L24">
-        <v>0.3292820476509917</v>
+        <v>0.4163586825086441</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.746672609644889</v>
+        <v>8.335793275772602</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.342434208417046</v>
+        <v>1.145101339317961</v>
       </c>
       <c r="C25">
-        <v>0.09840130374002598</v>
+        <v>0.105377314046649</v>
       </c>
       <c r="D25">
-        <v>0.3486973130458182</v>
+        <v>0.5543427773223613</v>
       </c>
       <c r="E25">
-        <v>0.09157545384034194</v>
+        <v>0.1860194279736405</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.000844128296528619</v>
+        <v>0.002572495964101908</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02806230769088014</v>
+        <v>0.07308984784794426</v>
       </c>
       <c r="K25">
-        <v>1.032850869408037</v>
+        <v>0.5945721458484741</v>
       </c>
       <c r="L25">
-        <v>0.2831425951996636</v>
+        <v>0.407946064942891</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.549081996697197</v>
+        <v>8.350607717548939</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_254/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.096718192662536</v>
+        <v>1.134968585832979</v>
       </c>
       <c r="C2">
-        <v>0.1042318063352177</v>
+        <v>0.09596399767898589</v>
       </c>
       <c r="D2">
-        <v>0.5500440473496155</v>
+        <v>0.3170998261633002</v>
       </c>
       <c r="E2">
-        <v>0.1859857314196667</v>
+        <v>0.08679267718556716</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002576913897089775</v>
+        <v>0.000851171484183979</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07349989187674222</v>
+        <v>0.02855726908299161</v>
       </c>
       <c r="K2">
-        <v>0.551167743408314</v>
+        <v>0.8633726520562561</v>
       </c>
       <c r="L2">
-        <v>0.4023042471223448</v>
+        <v>0.2503033978160261</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.37175143879864</v>
+        <v>4.427482131515632</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.064984540794825</v>
+        <v>0.996308568825043</v>
       </c>
       <c r="C3">
-        <v>0.1034372542101671</v>
+        <v>0.09430993619608685</v>
       </c>
       <c r="D3">
-        <v>0.5475900088491557</v>
+        <v>0.2965208458063131</v>
       </c>
       <c r="E3">
-        <v>0.1860915640303418</v>
+        <v>0.08376391736673483</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002580121558918526</v>
+        <v>0.0008561403738945299</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07380485733061981</v>
+        <v>0.02893073711928995</v>
       </c>
       <c r="K3">
-        <v>0.5222684740820682</v>
+        <v>0.7495936412525452</v>
       </c>
       <c r="L3">
-        <v>0.3988265014650807</v>
+        <v>0.2286492254653041</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>8.392468579742797</v>
+        <v>4.358430563324788</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.046023487550912</v>
+        <v>0.9119758797660893</v>
       </c>
       <c r="C4">
-        <v>0.1029404290832119</v>
+        <v>0.09329194338657487</v>
       </c>
       <c r="D4">
-        <v>0.5463102605992987</v>
+        <v>0.2842600372947857</v>
       </c>
       <c r="E4">
-        <v>0.1862201825593388</v>
+        <v>0.08200189227195054</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002582197010429348</v>
+        <v>0.0008592915121404517</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07400550936675998</v>
+        <v>0.02917845135083486</v>
       </c>
       <c r="K4">
-        <v>0.5047806029703281</v>
+        <v>0.6801496740385886</v>
       </c>
       <c r="L4">
-        <v>0.3968622167576825</v>
+        <v>0.2156182620060605</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>8.408341354318026</v>
+        <v>4.322154454751598</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.038428955501075</v>
+        <v>0.8777914224866947</v>
       </c>
       <c r="C5">
-        <v>0.1027357212078925</v>
+        <v>0.09287633649425686</v>
       </c>
       <c r="D5">
-        <v>0.5458459537376541</v>
+        <v>0.2793528055566554</v>
       </c>
       <c r="E5">
-        <v>0.1862886283748288</v>
+        <v>0.08130741374453443</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002583069492951905</v>
+        <v>0.0008606013401957434</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07409065352559452</v>
+        <v>0.02928397450233255</v>
       </c>
       <c r="K5">
-        <v>0.4977190565096095</v>
+        <v>0.6519399870719269</v>
       </c>
       <c r="L5">
-        <v>0.3961048805959422</v>
+        <v>0.2103702799514977</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>8.415602730571663</v>
+        <v>4.308846185611316</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.037175894720519</v>
+        <v>0.8721255188087582</v>
       </c>
       <c r="C6">
-        <v>0.1027015940851363</v>
+        <v>0.09280727444620851</v>
       </c>
       <c r="D6">
-        <v>0.5457723139672055</v>
+        <v>0.2785432041543743</v>
       </c>
       <c r="E6">
-        <v>0.1863009629924939</v>
+        <v>0.08119349113502494</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002583215984058089</v>
+        <v>0.0008608204036889732</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07410499579948748</v>
+        <v>0.02930177160406888</v>
       </c>
       <c r="K6">
-        <v>0.4965504248062587</v>
+        <v>0.6472607473510976</v>
       </c>
       <c r="L6">
-        <v>0.3959817334479752</v>
+        <v>0.209502493522848</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>8.416856389326256</v>
+        <v>4.306723588031048</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.045920528753186</v>
+        <v>0.9115141465456702</v>
       </c>
       <c r="C7">
-        <v>0.1029376774128998</v>
+        <v>0.09328634167772876</v>
       </c>
       <c r="D7">
-        <v>0.5463037670438666</v>
+        <v>0.2841935022238431</v>
       </c>
       <c r="E7">
-        <v>0.1862210406866289</v>
+        <v>0.08199243216670027</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002582208668703925</v>
+        <v>0.0008593090721877125</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07400664396928125</v>
+        <v>0.02917985600249207</v>
       </c>
       <c r="K7">
-        <v>0.5046851051228316</v>
+        <v>0.6797688866192431</v>
       </c>
       <c r="L7">
-        <v>0.3968518282955742</v>
+        <v>0.2155472394299096</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>8.408436072063637</v>
+        <v>4.321969087501486</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.085668117724623</v>
+        <v>1.086978654656548</v>
       </c>
       <c r="C8">
-        <v>0.1039597099179481</v>
+        <v>0.09539406940508499</v>
       </c>
       <c r="D8">
-        <v>0.5491508361116502</v>
+        <v>0.3099232524947411</v>
       </c>
       <c r="E8">
-        <v>0.1860090327510058</v>
+        <v>0.08572747890871213</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.00257799796113111</v>
+        <v>0.0008528642732197383</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07360226645456081</v>
+        <v>0.02868219027376018</v>
       </c>
       <c r="K8">
-        <v>0.5411503069018408</v>
+        <v>0.8240454769158987</v>
       </c>
       <c r="L8">
-        <v>0.4010696797347606</v>
+        <v>0.2427793858763891</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.378240666267885</v>
+        <v>4.402362376075359</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.167745812952973</v>
+        <v>1.438463616566452</v>
       </c>
       <c r="C9">
-        <v>0.1058925313429881</v>
+        <v>0.09951675866116716</v>
       </c>
       <c r="D9">
-        <v>0.5565314412555722</v>
+        <v>0.3635995645801842</v>
       </c>
       <c r="E9">
-        <v>0.1860970072762065</v>
+        <v>0.09387469983364483</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002570577614984969</v>
+        <v>0.0008409966616302693</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07291531913700222</v>
+        <v>0.02785468479222253</v>
       </c>
       <c r="K9">
-        <v>0.6146782439615208</v>
+        <v>1.111040261441076</v>
       </c>
       <c r="L9">
-        <v>0.4106942163902971</v>
+        <v>0.2984938636635661</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.344027698314363</v>
+        <v>4.611713231009134</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.230546988441375</v>
+        <v>1.702741595349238</v>
       </c>
       <c r="C10">
-        <v>0.1072688693615547</v>
+        <v>0.1025525349226868</v>
       </c>
       <c r="D10">
-        <v>0.5630457229647874</v>
+        <v>0.4053688107334921</v>
       </c>
       <c r="E10">
-        <v>0.1864673073681651</v>
+        <v>0.1004339974901995</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002565630860291538</v>
+        <v>0.0008327108329483596</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07247484559618478</v>
+        <v>0.027340741800149</v>
       </c>
       <c r="K10">
-        <v>0.6699172145327736</v>
+        <v>1.325531770252809</v>
       </c>
       <c r="L10">
-        <v>0.4185863049101783</v>
+        <v>0.3411553790027853</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.334123209951429</v>
+        <v>4.801711711587302</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.259655574632177</v>
+        <v>1.82465122723238</v>
       </c>
       <c r="C11">
-        <v>0.1078854803065923</v>
+        <v>0.1039384266014167</v>
       </c>
       <c r="D11">
-        <v>0.5662455299896862</v>
+        <v>0.4249664756599145</v>
       </c>
       <c r="E11">
-        <v>0.1867018544887742</v>
+        <v>0.1035598434951766</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002563489000323902</v>
+        <v>0.0008290268212594206</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07228832122894424</v>
+        <v>0.02712820880755018</v>
       </c>
       <c r="K11">
-        <v>0.695308941200949</v>
+        <v>1.424179669011551</v>
       </c>
       <c r="L11">
-        <v>0.4223541023460626</v>
+        <v>0.361015404703636</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.332923581390901</v>
+        <v>4.897133569338791</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.270755408177962</v>
+        <v>1.871091169998948</v>
       </c>
       <c r="C12">
-        <v>0.1081176047726728</v>
+        <v>0.1044642410883441</v>
       </c>
       <c r="D12">
-        <v>0.567491122828585</v>
+        <v>0.4324813844825997</v>
       </c>
       <c r="E12">
-        <v>0.1868001488048883</v>
+        <v>0.1047654925330335</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002562693443914557</v>
+        <v>0.0008276432760045355</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07221967404313112</v>
+        <v>0.02705086417677194</v>
       </c>
       <c r="K12">
-        <v>0.7049616476256517</v>
+        <v>1.461714699531768</v>
       </c>
       <c r="L12">
-        <v>0.4238063249238877</v>
+        <v>0.3686079374270008</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.332944486669476</v>
+        <v>4.934662598890782</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.268361443557751</v>
+        <v>1.86107669975317</v>
       </c>
       <c r="C13">
-        <v>0.1080676737889377</v>
+        <v>0.1043509475615636</v>
       </c>
       <c r="D13">
-        <v>0.5672213562480692</v>
+        <v>0.4308586145393178</v>
       </c>
       <c r="E13">
-        <v>0.1867785583450257</v>
+        <v>0.1045048319586677</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002562864092258245</v>
+        <v>0.0008279407478550833</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07223437022963708</v>
+        <v>0.02706738087366212</v>
       </c>
       <c r="K13">
-        <v>0.7028811077667569</v>
+        <v>1.453622473412281</v>
       </c>
       <c r="L13">
-        <v>0.4234924330618384</v>
+        <v>0.3669694341352994</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.332918854054014</v>
+        <v>4.926516300190769</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.260567224029302</v>
+        <v>1.828466153051806</v>
       </c>
       <c r="C14">
-        <v>0.1079046048815968</v>
+        <v>0.1039816636377182</v>
       </c>
       <c r="D14">
-        <v>0.5663473269342489</v>
+        <v>0.4255828063592446</v>
       </c>
       <c r="E14">
-        <v>0.1867097514602243</v>
+        <v>0.1036585836132566</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002563423238621975</v>
+        <v>0.0008289127699947758</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07228263382470956</v>
+        <v>0.02712178226984641</v>
       </c>
       <c r="K14">
-        <v>0.6961023279320102</v>
+        <v>1.427263958138525</v>
       </c>
       <c r="L14">
-        <v>0.4224730683311577</v>
+        <v>0.3616385634732353</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.332915779223015</v>
+        <v>4.900192536131271</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.255803054835553</v>
+        <v>1.808528132837466</v>
       </c>
       <c r="C15">
-        <v>0.1078045414710189</v>
+        <v>0.1037556072923138</v>
       </c>
       <c r="D15">
-        <v>0.5658163698801388</v>
+        <v>0.4223636690991555</v>
       </c>
       <c r="E15">
-        <v>0.1866688385340609</v>
+        <v>0.1031431395932856</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002563767750988721</v>
+        <v>0.0008295096373783023</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07231245507005468</v>
+        <v>0.02715551569431618</v>
       </c>
       <c r="K15">
-        <v>0.6919549884117657</v>
+        <v>1.411142712854684</v>
       </c>
       <c r="L15">
-        <v>0.421851987835268</v>
+        <v>0.3583828359832069</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.332975771709016</v>
+        <v>4.884253291146024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.228655488159802</v>
+        <v>1.694811216210184</v>
       </c>
       <c r="C16">
-        <v>0.1072283807129395</v>
+        <v>0.1024620874133504</v>
       </c>
       <c r="D16">
-        <v>0.5628413567957011</v>
+        <v>0.4041007245009638</v>
       </c>
       <c r="E16">
-        <v>0.186453306774812</v>
+        <v>0.1002327022925087</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002565773011723266</v>
+        <v>0.0008329532445190413</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07248731357415927</v>
+        <v>0.02735506583690039</v>
       </c>
       <c r="K16">
-        <v>0.6682630646191114</v>
+        <v>1.319108585971293</v>
       </c>
       <c r="L16">
-        <v>0.4183436361258543</v>
+        <v>0.3398671673118656</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.334268114562263</v>
+        <v>4.795665113947422</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.212139211285205</v>
+        <v>1.625504372270655</v>
       </c>
       <c r="C17">
-        <v>0.1068724880156466</v>
+        <v>0.1016700156430659</v>
       </c>
       <c r="D17">
-        <v>0.5610767642619692</v>
+        <v>0.3930552410612478</v>
       </c>
       <c r="E17">
-        <v>0.1863379937105343</v>
+        <v>0.09848466914610654</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002567030896040118</v>
+        <v>0.0008350871050105365</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07259812647400388</v>
+        <v>0.02748298378629244</v>
       </c>
       <c r="K17">
-        <v>0.6537959429718683</v>
+        <v>1.262940796311796</v>
       </c>
       <c r="L17">
-        <v>0.4162368000341843</v>
+        <v>0.3286291317985643</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.335907509148626</v>
+        <v>4.743691843593069</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.202690350806222</v>
+        <v>1.585797708531089</v>
       </c>
       <c r="C18">
-        <v>0.1066668949598863</v>
+        <v>0.1012148783487063</v>
       </c>
       <c r="D18">
-        <v>0.560084077107291</v>
+        <v>0.3867578196462489</v>
       </c>
       <c r="E18">
-        <v>0.1862778916017191</v>
+        <v>0.09749251219959731</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002567764609414571</v>
+        <v>0.0008363225175640563</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07266316703429787</v>
+        <v>0.02755855499293247</v>
       </c>
       <c r="K18">
-        <v>0.6454996411200113</v>
+        <v>1.230734124419172</v>
       </c>
       <c r="L18">
-        <v>0.4150417308927814</v>
+        <v>0.322207518181429</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.337161632029421</v>
+        <v>4.714637850175222</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.199499883786302</v>
+        <v>1.57237969322054</v>
       </c>
       <c r="C19">
-        <v>0.1065971315501031</v>
+        <v>0.1010608437962617</v>
       </c>
       <c r="D19">
-        <v>0.5597517965689605</v>
+        <v>0.3846349477891522</v>
       </c>
       <c r="E19">
-        <v>0.1862586117097322</v>
+        <v>0.09715881824440942</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.00256801478834956</v>
+        <v>0.0008367422154430612</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.0726854127808334</v>
+        <v>0.02758448262986057</v>
       </c>
       <c r="K19">
-        <v>0.6426949295090481</v>
+        <v>1.219845878279017</v>
       </c>
       <c r="L19">
-        <v>0.4146399771743461</v>
+        <v>0.3200403203690882</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.337639709735157</v>
+        <v>4.704941904806645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.213892137234126</v>
+        <v>1.632865747921954</v>
       </c>
       <c r="C20">
-        <v>0.1069104658799063</v>
+        <v>0.1017542852585152</v>
       </c>
       <c r="D20">
-        <v>0.5612623050890164</v>
+        <v>0.3942252369282784</v>
       </c>
       <c r="E20">
-        <v>0.1863496251386216</v>
+        <v>0.09866936654916714</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002566895935714852</v>
+        <v>0.0008348591217978576</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07258619534518296</v>
+        <v>0.0274691595486054</v>
       </c>
       <c r="K20">
-        <v>0.6553334288812778</v>
+        <v>1.268909477519912</v>
       </c>
       <c r="L20">
-        <v>0.4164593458946371</v>
+        <v>0.3298210239330785</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.33570078771956</v>
+        <v>4.749136873082392</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.262854489139045</v>
+        <v>1.838036912997893</v>
       </c>
       <c r="C21">
-        <v>0.1079525394890268</v>
+        <v>0.1040901013654718</v>
       </c>
       <c r="D21">
-        <v>0.5666031314371196</v>
+        <v>0.4271298300420483</v>
       </c>
       <c r="E21">
-        <v>0.1867297047463587</v>
+        <v>0.1039065384156359</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002563258583325582</v>
+        <v>0.0008286269573629504</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07226840379729715</v>
+        <v>0.0271057174585021</v>
       </c>
       <c r="K21">
-        <v>0.6980924080937143</v>
+        <v>1.43500102226642</v>
       </c>
       <c r="L21">
-        <v>0.4227717908841413</v>
+        <v>0.3632023590007805</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.332903787872226</v>
+        <v>4.907885753261553</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.295303005644996</v>
+        <v>1.973750566705576</v>
       </c>
       <c r="C22">
-        <v>0.1086255900991091</v>
+        <v>0.1056227283515554</v>
       </c>
       <c r="D22">
-        <v>0.5702911909534123</v>
+        <v>0.4491851608435127</v>
       </c>
       <c r="E22">
-        <v>0.1870333315861288</v>
+        <v>0.1074581318708923</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002560971790286709</v>
+        <v>0.00082462057899016</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0720722791825299</v>
+        <v>0.02688651346919713</v>
       </c>
       <c r="K22">
-        <v>0.7262557269131378</v>
+        <v>1.544609010227589</v>
       </c>
       <c r="L22">
-        <v>0.4270455704949256</v>
+        <v>0.3854420734347599</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.333845393108675</v>
+        <v>5.019821089586742</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.277943758076674</v>
+        <v>1.901157682115581</v>
       </c>
       <c r="C23">
-        <v>0.1082671052774984</v>
+        <v>0.1048040756026936</v>
       </c>
       <c r="D23">
-        <v>0.5683047648309127</v>
+        <v>0.4373606867933972</v>
       </c>
       <c r="E23">
-        <v>0.1868662365760017</v>
+        <v>0.1055502528710548</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002562184044848863</v>
+        <v>0.0008267530174748954</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07217589783477507</v>
+        <v>0.02700180193328094</v>
       </c>
       <c r="K23">
-        <v>0.7112046456341545</v>
+        <v>1.486003693297818</v>
       </c>
       <c r="L23">
-        <v>0.4247510455042089</v>
+        <v>0.3735312064820135</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.333089492177237</v>
+        <v>4.959294334919036</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.213099494314974</v>
+        <v>1.62953724020619</v>
       </c>
       <c r="C24">
-        <v>0.1068932991567593</v>
+        <v>0.1017161862548903</v>
       </c>
       <c r="D24">
-        <v>0.5611783541682058</v>
+        <v>0.3936961180071421</v>
       </c>
       <c r="E24">
-        <v>0.1863443472778279</v>
+        <v>0.09858582506615576</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.00256695691848015</v>
+        <v>0.0008349621660382761</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07259158525678977</v>
+        <v>0.02747540317099251</v>
       </c>
       <c r="K24">
-        <v>0.6546382659343806</v>
+        <v>1.266210774021829</v>
       </c>
       <c r="L24">
-        <v>0.4163586825086441</v>
+        <v>0.3292820476509917</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.335793275772602</v>
+        <v>4.746672609644946</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.145101339317961</v>
+        <v>1.342434208417131</v>
       </c>
       <c r="C25">
-        <v>0.105377314046649</v>
+        <v>0.09840130374001888</v>
       </c>
       <c r="D25">
-        <v>0.5543427773223613</v>
+        <v>0.3486973130459177</v>
       </c>
       <c r="E25">
-        <v>0.1860194279736405</v>
+        <v>0.09157545384033838</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002572495964101908</v>
+        <v>0.0008441282965624178</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07308984784794426</v>
+        <v>0.02806230769086593</v>
       </c>
       <c r="K25">
-        <v>0.5945721458484741</v>
+        <v>1.032850869407923</v>
       </c>
       <c r="L25">
-        <v>0.407946064942891</v>
+        <v>0.2831425951997346</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.350607717548939</v>
+        <v>4.54908199669714</v>
       </c>
     </row>
   </sheetData>
